--- a/schema.xlsx
+++ b/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359BC20B-248C-4480-B9A1-330B943411A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED868FF-836B-403F-8DA4-55B453101E88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Trainers</t>
   </si>
@@ -457,7 +457,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -479,6 +478,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +796,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -814,15 +814,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -853,7 +853,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -877,44 +877,44 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -927,7 +927,7 @@
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -958,10 +958,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1032,21 +1032,21 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1058,24 +1058,22 @@
       <c r="E33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>27</v>
       </c>
     </row>
